--- a/data/out/wiki/men/fifa/wc/tb_wc_fifa_men.xlsx
+++ b/data/out/wiki/men/fifa/wc/tb_wc_fifa_men.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="94">
   <si>
     <t>year</t>
   </si>
@@ -136,27 +136,51 @@
     <t>Portugal</t>
   </si>
   <si>
+    <t>Czechoslovakia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
     <t>Switzerland</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -169,24 +193,15 @@
     <t>Greece</t>
   </si>
   <si>
-    <t>Republic of Ireland</t>
-  </si>
-  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Austria</t>
-  </si>
-  <si>
     <t>South Africa</t>
   </si>
   <si>
@@ -217,9 +232,6 @@
     <t>Turkey</t>
   </si>
   <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
     <t>China</t>
   </si>
   <si>
@@ -269,9 +281,6 @@
   </si>
   <si>
     <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Egypt</t>
   </si>
   <si>
     <t>Peru</t>
@@ -644,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H273"/>
+  <dimension ref="A1:H297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,22 +1311,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1328,13 +1337,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1354,19 +1363,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1375,18 +1384,18 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1406,13 +1415,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1432,7 +1441,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
@@ -1441,56 +1450,56 @@
         <v>44</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>2</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1502,21 +1511,21 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1536,13 +1545,13 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1551,30 +1560,30 @@
         <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1583,18 +1592,18 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1603,59 +1612,59 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1666,13 +1675,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1681,24 +1690,24 @@
         <v>1</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1718,45 +1727,45 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1765,44 +1774,44 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1811,27 +1820,27 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1843,70 +1852,70 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>2</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1915,24 +1924,24 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1941,50 +1950,50 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1996,21 +2005,21 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -2019,30 +2028,30 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2051,24 +2060,24 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B55" t="s">
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2077,18 +2086,18 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B56" t="s">
         <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -2100,21 +2109,21 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B57" t="s">
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -2123,24 +2132,24 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -2160,13 +2169,13 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -2186,13 +2195,13 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -2201,24 +2210,24 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -2227,76 +2236,76 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -2316,13 +2325,13 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2342,16 +2351,16 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2360,53 +2369,53 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -2420,13 +2429,13 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -2435,27 +2444,27 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2467,70 +2476,70 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>2</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2553,16 +2562,16 @@
         <v>1998</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2571,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2579,19 +2588,19 @@
         <v>1998</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>2</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2605,25 +2614,25 @@
         <v>1998</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2631,10 +2640,10 @@
         <v>1998</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2643,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2657,10 +2666,10 @@
         <v>1998</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2683,7 +2692,7 @@
         <v>1998</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
         <v>61</v>
@@ -2709,10 +2718,10 @@
         <v>1998</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -2724,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2735,10 +2744,10 @@
         <v>1998</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -2747,30 +2756,30 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2779,24 +2788,24 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -2805,18 +2814,18 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2825,24 +2834,24 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2851,24 +2860,24 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -2888,10 +2897,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
         <v>21</v>
@@ -2900,27 +2909,27 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2929,24 +2938,24 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2955,24 +2964,24 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -2992,13 +3001,13 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3007,30 +3016,30 @@
         <v>2</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -3039,18 +3048,18 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3070,19 +3079,19 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3091,27 +3100,27 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>2</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3122,39 +3131,39 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D96">
         <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -3174,19 +3183,19 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3195,50 +3204,50 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3247,18 +3256,18 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -3278,13 +3287,13 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -3304,13 +3313,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -3330,13 +3339,13 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -3348,21 +3357,21 @@
         <v>1</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -3371,13 +3380,13 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3385,16 +3394,16 @@
         <v>2002</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3403,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3411,25 +3420,25 @@
         <v>2002</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3437,25 +3446,25 @@
         <v>2002</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3463,10 +3472,10 @@
         <v>2002</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -3475,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3489,16 +3498,16 @@
         <v>2002</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3507,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3515,25 +3524,25 @@
         <v>2002</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111">
         <v>2</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3541,25 +3550,25 @@
         <v>2002</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D112">
         <v>0</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3567,10 +3576,10 @@
         <v>2002</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3579,30 +3588,30 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C114" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3611,70 +3620,70 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F116">
         <v>2</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3683,24 +3692,24 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -3720,65 +3729,65 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3787,24 +3796,24 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -3824,13 +3833,13 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3839,50 +3848,50 @@
         <v>1</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3891,24 +3900,24 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3928,13 +3937,13 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -3954,13 +3963,13 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C128" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -3980,13 +3989,13 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C129" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -4006,19 +4015,19 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -4027,24 +4036,24 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -4058,13 +4067,13 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -4073,24 +4082,24 @@
         <v>1</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -4110,19 +4119,19 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -4131,44 +4140,44 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C135" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="D135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135">
         <v>2</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C136" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -4177,24 +4186,24 @@
         <v>2</v>
       </c>
       <c r="F136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C137" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -4203,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4217,16 +4226,16 @@
         <v>2006</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
         <v>0</v>
@@ -4235,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4243,19 +4252,19 @@
         <v>2006</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>1</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4269,25 +4278,25 @@
         <v>2006</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4295,10 +4304,10 @@
         <v>2006</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -4307,13 +4316,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4321,10 +4330,10 @@
         <v>2006</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -4347,10 +4356,10 @@
         <v>2006</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -4373,10 +4382,10 @@
         <v>2006</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -4388,10 +4397,10 @@
         <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4399,10 +4408,10 @@
         <v>2006</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -4411,24 +4420,24 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -4448,13 +4457,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -4474,13 +4483,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -4489,24 +4498,24 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G148">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -4518,21 +4527,21 @@
         <v>1</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -4552,65 +4561,65 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C153" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -4619,33 +4628,33 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E154">
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4656,13 +4665,13 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -4682,16 +4691,16 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -4703,18 +4712,18 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -4734,19 +4743,19 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C158" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D158">
         <v>1</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4755,70 +4764,70 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C159" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C160" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C161" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -4830,21 +4839,21 @@
         <v>1</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C162" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -4864,13 +4873,13 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C163" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -4879,30 +4888,30 @@
         <v>1</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D164">
         <v>0</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -4911,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -4942,13 +4951,13 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C166" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -4968,13 +4977,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -4986,21 +4995,21 @@
         <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C168" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -5020,19 +5029,19 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D169">
         <v>0</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -5041,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5049,10 +5058,10 @@
         <v>2010</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -5075,10 +5084,10 @@
         <v>2010</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -5101,10 +5110,10 @@
         <v>2010</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -5116,10 +5125,10 @@
         <v>1</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5127,10 +5136,10 @@
         <v>2010</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -5139,13 +5148,13 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5153,16 +5162,16 @@
         <v>2010</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D174">
         <v>1</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -5171,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5179,25 +5188,25 @@
         <v>2010</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F175">
         <v>0</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5205,25 +5214,25 @@
         <v>2010</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G176">
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5231,10 +5240,10 @@
         <v>2010</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -5243,82 +5252,82 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D178">
         <v>1</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179">
         <v>1</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -5327,18 +5336,18 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -5358,19 +5367,19 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D182">
         <v>1</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5379,21 +5388,21 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -5405,18 +5414,18 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -5436,13 +5445,13 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C185" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -5462,13 +5471,13 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -5488,65 +5497,65 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C187" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D187">
         <v>0</v>
       </c>
       <c r="E187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C188" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D188">
         <v>0</v>
       </c>
       <c r="E188">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -5555,24 +5564,24 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C190" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -5592,13 +5601,13 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -5607,10 +5616,10 @@
         <v>1</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -5618,19 +5627,19 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="D192">
         <v>0</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -5639,24 +5648,24 @@
         <v>0</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -5665,18 +5674,18 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D194">
         <v>1</v>
@@ -5696,13 +5705,13 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -5711,30 +5720,30 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -5743,18 +5752,18 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -5774,19 +5783,19 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D198">
         <v>1</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -5795,21 +5804,21 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -5821,18 +5830,18 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -5844,21 +5853,21 @@
         <v>1</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -5867,13 +5876,13 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G201">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5881,10 +5890,10 @@
         <v>2014</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -5907,10 +5916,10 @@
         <v>2014</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5933,10 +5942,10 @@
         <v>2014</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -5945,13 +5954,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5959,10 +5968,10 @@
         <v>2014</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -5971,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5985,10 +5994,10 @@
         <v>2014</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -6011,25 +6020,25 @@
         <v>2014</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D207">
         <v>0</v>
       </c>
       <c r="E207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207">
         <v>0</v>
       </c>
       <c r="H207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6037,25 +6046,25 @@
         <v>2014</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D208">
         <v>0</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6063,10 +6072,10 @@
         <v>2014</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -6075,30 +6084,30 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G209">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D210">
         <v>1</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -6107,70 +6116,70 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D212">
         <v>0</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -6190,19 +6199,19 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C214" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -6211,70 +6220,70 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C215" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G215">
         <v>0</v>
       </c>
       <c r="H215">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D216">
         <v>0</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H216">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -6283,21 +6292,21 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
         <v>25</v>
@@ -6320,13 +6329,13 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="D219">
         <v>0</v>
@@ -6335,36 +6344,36 @@
         <v>1</v>
       </c>
       <c r="F219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219">
         <v>0</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D220">
         <v>0</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
         <v>1</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H220">
         <v>2</v>
@@ -6372,13 +6381,13 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -6387,24 +6396,24 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G221">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
       <c r="A222">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C222" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -6424,65 +6433,65 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D223">
         <v>0</v>
       </c>
       <c r="E223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D224">
         <v>0</v>
       </c>
       <c r="E224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -6491,30 +6500,30 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -6523,24 +6532,24 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -6549,18 +6558,18 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -6569,24 +6578,24 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G228">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -6595,117 +6604,117 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D230">
         <v>1</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230">
         <v>0</v>
       </c>
       <c r="H230">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231">
         <v>0</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D232">
         <v>0</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D233">
         <v>0</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G233">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6713,16 +6722,16 @@
         <v>2018</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D234">
         <v>1</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
         <v>0</v>
@@ -6731,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6739,13 +6748,13 @@
         <v>2018</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -6757,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6765,7 +6774,7 @@
         <v>2018</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>60</v>
@@ -6777,13 +6786,13 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G236">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6791,10 +6800,10 @@
         <v>2018</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -6806,10 +6815,10 @@
         <v>1</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H237">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6817,25 +6826,25 @@
         <v>2018</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6843,13 +6852,13 @@
         <v>2018</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E239">
         <v>2</v>
@@ -6861,7 +6870,7 @@
         <v>0</v>
       </c>
       <c r="H239">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6869,25 +6878,25 @@
         <v>2018</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6895,10 +6904,10 @@
         <v>2018</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C241" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -6907,24 +6916,24 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -6944,65 +6953,65 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D243">
         <v>0</v>
       </c>
       <c r="E243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G243">
         <v>0</v>
       </c>
       <c r="H243">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -7011,24 +7020,24 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C246" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="D246">
         <v>1</v>
@@ -7048,62 +7057,62 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D247">
         <v>0</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F247">
         <v>1</v>
       </c>
       <c r="G247">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C248" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D248">
         <v>0</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G248">
         <v>0</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C249" t="s">
         <v>90</v>
@@ -7115,27 +7124,27 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -7147,24 +7156,24 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C251" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D251">
         <v>1</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -7173,18 +7182,18 @@
         <v>0</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -7196,21 +7205,21 @@
         <v>1</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -7219,82 +7228,82 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C254" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D254">
         <v>1</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254">
         <v>0</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C255" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G255">
         <v>0</v>
       </c>
       <c r="H255">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C256" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D256">
         <v>0</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -7303,24 +7312,24 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C257" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D257">
         <v>0</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -7329,122 +7338,122 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C258" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D258">
         <v>1</v>
       </c>
       <c r="E258">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258">
         <v>0</v>
       </c>
       <c r="H258">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
       <c r="H259">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C260" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D260">
         <v>0</v>
       </c>
       <c r="E260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260">
         <v>2</v>
       </c>
       <c r="G260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C261" t="s">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D261">
         <v>0</v>
       </c>
       <c r="E261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G261">
         <v>2</v>
       </c>
       <c r="H261">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -7453,30 +7462,30 @@
         <v>1</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D263">
         <v>1</v>
       </c>
       <c r="E263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F263">
         <v>0</v>
@@ -7485,21 +7494,21 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B264" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D264">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264">
         <v>0</v>
@@ -7511,18 +7520,18 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -7545,10 +7554,10 @@
         <v>2022</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C266" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -7571,10 +7580,10 @@
         <v>2022</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C267" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -7583,13 +7592,13 @@
         <v>2</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G267">
         <v>0</v>
       </c>
       <c r="H267">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7597,25 +7606,25 @@
         <v>2022</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D268">
         <v>0</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F268">
         <v>2</v>
       </c>
       <c r="G268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H268">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7623,25 +7632,25 @@
         <v>2022</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C269" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D269">
         <v>0</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7649,10 +7658,10 @@
         <v>2022</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C270" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -7675,10 +7684,10 @@
         <v>2022</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C271" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -7690,10 +7699,10 @@
         <v>1</v>
       </c>
       <c r="G271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7701,10 +7710,10 @@
         <v>2022</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C272" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -7713,13 +7722,13 @@
         <v>1</v>
       </c>
       <c r="F272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7727,24 +7736,648 @@
         <v>2022</v>
       </c>
       <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>93</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274">
+        <v>2022</v>
+      </c>
+      <c r="B274" t="s">
+        <v>10</v>
+      </c>
+      <c r="C274" t="s">
+        <v>16</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275">
+        <v>2022</v>
+      </c>
+      <c r="B275" t="s">
+        <v>10</v>
+      </c>
+      <c r="C275" t="s">
+        <v>38</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276">
+        <v>2022</v>
+      </c>
+      <c r="B276" t="s">
+        <v>10</v>
+      </c>
+      <c r="C276" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>1</v>
+      </c>
+      <c r="G276">
+        <v>1</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277">
+        <v>2022</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+      <c r="C277" t="s">
+        <v>60</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
+      <c r="H277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278">
+        <v>2022</v>
+      </c>
+      <c r="B278" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" t="s">
+        <v>25</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279">
+        <v>2022</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" t="s">
+        <v>80</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280">
+        <v>2022</v>
+      </c>
+      <c r="B280" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" t="s">
+        <v>65</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>1</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281">
+        <v>2022</v>
+      </c>
+      <c r="B281" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="H281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282">
+        <v>2022</v>
+      </c>
+      <c r="B282" t="s">
+        <v>12</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282">
+        <v>2</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283">
+        <v>2022</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>29</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283">
+        <v>2</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284">
+        <v>2022</v>
+      </c>
+      <c r="B284" t="s">
+        <v>12</v>
+      </c>
+      <c r="C284" t="s">
+        <v>55</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>2</v>
+      </c>
+      <c r="G284">
+        <v>2</v>
+      </c>
+      <c r="H284">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285">
+        <v>2022</v>
+      </c>
+      <c r="B285" t="s">
+        <v>12</v>
+      </c>
+      <c r="C285" t="s">
+        <v>45</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>3</v>
+      </c>
+      <c r="G285">
+        <v>2</v>
+      </c>
+      <c r="H285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286">
+        <v>2022</v>
+      </c>
+      <c r="B286" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" t="s">
+        <v>36</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287">
+        <v>2022</v>
+      </c>
+      <c r="B287" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287" t="s">
+        <v>66</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288">
+        <v>2022</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+      <c r="C288" t="s">
+        <v>22</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289">
+        <v>2022</v>
+      </c>
+      <c r="B289" t="s">
+        <v>13</v>
+      </c>
+      <c r="C289" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>1</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290">
+        <v>2022</v>
+      </c>
+      <c r="B290" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291">
+        <v>2022</v>
+      </c>
+      <c r="B291" t="s">
+        <v>14</v>
+      </c>
+      <c r="C291" t="s">
+        <v>53</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>1</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292">
+        <v>2022</v>
+      </c>
+      <c r="B292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" t="s">
+        <v>43</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>2</v>
+      </c>
+      <c r="G292">
+        <v>1</v>
+      </c>
+      <c r="H292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293">
+        <v>2022</v>
+      </c>
+      <c r="B293" t="s">
+        <v>14</v>
+      </c>
+      <c r="C293" t="s">
+        <v>83</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293">
+        <v>2</v>
+      </c>
+      <c r="H293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294">
+        <v>2022</v>
+      </c>
+      <c r="B294" t="s">
         <v>15</v>
       </c>
-      <c r="C273" t="s">
-        <v>74</v>
-      </c>
-      <c r="D273">
-        <v>0</v>
-      </c>
-      <c r="E273">
-        <v>1</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273">
-        <v>1</v>
-      </c>
-      <c r="H273">
+      <c r="C294" t="s">
+        <v>39</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295">
+        <v>2022</v>
+      </c>
+      <c r="B295" t="s">
+        <v>15</v>
+      </c>
+      <c r="C295" t="s">
+        <v>19</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+      <c r="G295">
+        <v>1</v>
+      </c>
+      <c r="H295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296">
+        <v>2022</v>
+      </c>
+      <c r="B296" t="s">
+        <v>15</v>
+      </c>
+      <c r="C296" t="s">
+        <v>34</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>2</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297">
+        <v>2022</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+      <c r="C297" t="s">
+        <v>78</v>
+      </c>
+      <c r="D297">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>1</v>
+      </c>
+      <c r="G297">
+        <v>1</v>
+      </c>
+      <c r="H297">
         <v>3</v>
       </c>
     </row>
